--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USEFUL\Learn\mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7594C3F6-CB45-48CF-8DD0-4A2D1C5AB25D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10919E7-3787-466D-BBF2-1F2BB9574CA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA8FAA17-EF9A-45CA-815A-E74E060686F2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NAME</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>djangonotforme@gmail.com</t>
+  </si>
+  <si>
+    <t>dhirajssh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F391A50E-B03C-4310-96FC-5D7C7CE508A0}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,10 +449,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BA6F2DDC-54EE-4CC3-B781-CC9158BE4409}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{168439E0-7981-4600-874A-A6B1E85B3F2E}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{09B8F013-80AF-4CD6-B645-13DF3A8FF0F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
